--- a/Metropolitan Roads/27179/res_ITP-071-STR-Camms-Steel Structure installation Draft Rev 0.xlsx
+++ b/Metropolitan Roads/27179/res_ITP-071-STR-Camms-Steel Structure installation Draft Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\27179\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED54DB3-C4B4-499B-BE37-8631C093453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B50C16-7E6D-44B4-AC4F-6D3BB8F91271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1995" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="1725" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$586</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="241">
   <si>
     <t>type</t>
   </si>
@@ -122,126 +122,9 @@
     <t>Preliminaries - Materials</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Title: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP Description: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline (e.g. CIV/STR/RAIL): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP created by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP approved for use by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
     <t>1.3 Non Dependent</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 </t>
-  </si>
-  <si>
     <t>Preliminaries - Procedures</t>
   </si>
   <si>
@@ -251,28 +134,631 @@
     <t>Pre-installation Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17 </t>
-  </si>
-  <si>
     <t>Post-installation Activities</t>
+  </si>
+  <si>
+    <t>ITP-071-STR-CAMMS-Misc Steel Structures Installation</t>
+  </si>
+  <si>
+    <t>ITP-071-STR-CAMMS-Misc Steel Structures Installation Rev 0</t>
+  </si>
+  <si>
+    <t>ITP Description: CAMMS-Misc Steel Structures Installation</t>
+  </si>
+  <si>
+    <t>Document Title: ITP-071-STR-CAMMS-Misc Steel Structures Installation</t>
+  </si>
+  <si>
+    <t>ITP number: 071-STR</t>
+  </si>
+  <si>
+    <t>Discipline (e.g. CIV/STR/RAIL): 071-STR</t>
+  </si>
+  <si>
+    <t>Revision Number: 0</t>
+  </si>
+  <si>
+    <t>Revision Date: 19/10/2023</t>
+  </si>
+  <si>
+    <t>ITP created by: VM</t>
+  </si>
+  <si>
+    <t>ITP approved for use by: VM</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 610 June 2019</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 630 October 2013</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 631 February 2009</t>
+  </si>
+  <si>
+    <t>2.1 Structural Steel Components</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings, MRPA Quality Management Plan</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Fabricator is required to provide the Manufacturer's Data Record (MDR) for each component.</t>
+  </si>
+  <si>
+    <t>Typically this consists of but not limited to:</t>
+  </si>
+  <si>
+    <t>i. Certificate of Compliance</t>
+  </si>
+  <si>
+    <t>ii. Completed ITP</t>
+  </si>
+  <si>
+    <t>iii. Weld Procedure Specifications</t>
+  </si>
+  <si>
+    <t>iv. Weld Procedure Qualifications</t>
+  </si>
+  <si>
+    <t>v. Welder Qualifications</t>
+  </si>
+  <si>
+    <t>vi. Material Certificates and traceability</t>
+  </si>
+  <si>
+    <t>vii. Quality Assurance check sheets</t>
+  </si>
+  <si>
+    <t>viii. Welding Consumable batch certificates</t>
+  </si>
+  <si>
+    <t>ix. Coating certificate(s)</t>
+  </si>
+  <si>
+    <t>x. Non-destructive Testing (NDT) Reports</t>
+  </si>
+  <si>
+    <t>xi. As-built Drawings to demonstrate compliance with dimensional tolerances of structural steel</t>
+  </si>
+  <si>
+    <t>Collate: Structural Steel Quality Assurance Documentation and upload in a TeamBinder Lot.</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Material Approval number</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each component</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: PE/SE/SPE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>2.2 Fasteners</t>
+  </si>
+  <si>
+    <t>REFERENCE: 630.20 IFC Drawing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Bolts, nuts and washers for Property Class 4.6 bolting shall be supplied in accordance with AS 1111 and AS 1112</t>
+  </si>
+  <si>
+    <t>METHOD: Document review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: PE/Nominated Authority</t>
+  </si>
+  <si>
+    <t>2.2 Base Plate Structural Grout or Mortar</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 610.33</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Product to be selected based on the following criteria:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. either a single component, self consolidating and dual shrinkage compensating cementitious grout </t>
+  </si>
+  <si>
+    <t>ii. have the required strength at 28 days as noted on the IFC drawings, but 40MPa minimum</t>
+  </si>
+  <si>
+    <t>iii. have a flowable consistency</t>
+  </si>
+  <si>
+    <t>iv. the surface preparation matches the concrete surface underneath the post base-plate as per the IFC drawings (see 5.1 also)</t>
+  </si>
+  <si>
+    <t>v. have the characteristics capable of being applied to the minimum and maximum thickness as noted on the IFC drawings</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, for each product, prior to placement of product</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Nominated Authority</t>
+  </si>
+  <si>
+    <t>NOMINATED AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>2.3 Curing Compound</t>
+  </si>
+  <si>
+    <t>REFERENCE: 610.23 (d)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of curing compound and NATA test certificate stating compliance with AS3799 no more than 3 years from issue, to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>Note: This may be the same product used for the concrete curing</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, once, for each product, prior to placement of product</t>
+  </si>
+  <si>
+    <t>3.1 Installation Methodology &amp; Works Method Statiment</t>
+  </si>
+  <si>
+    <t>REFERENCE: 630.20 AS5131 Clause 11.2.3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of how the Structural &amp; Architectural Steel will be Installed will need to be privided including the following:</t>
+  </si>
+  <si>
+    <t>Attach: Subcontractor ITP</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Approval number</t>
+  </si>
+  <si>
+    <t>– Transported to site;</t>
+  </si>
+  <si>
+    <t>– Handled on site;</t>
+  </si>
+  <si>
+    <t>– Installation Procedure (subcontracor ITP's);</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, once, 14 days prior to use of devices</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Subcontractor ITP, ConQA Hold Point Release</t>
+  </si>
+  <si>
+    <t>4.1 IFC Drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE: MRPA Quality Management Plan</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Check the revision of the IFC drawings are current as per the drawing register (on Teambinder)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to starting Works and at regular intervals</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP*</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: All</t>
+  </si>
+  <si>
+    <t>4.2 Materials Inspection</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings VR 630</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: General inspection of structural steel elements for defects including cracks, handling and storage damage &amp; distortion.</t>
+  </si>
+  <si>
+    <t>METHOD: Visual</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>4.3 Materials Inspection</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Bolts, nuts and washers shall be the size, material, strength grade and coating as noted on the IFC Drawings.</t>
+  </si>
+  <si>
+    <t>○ Where bolted faces are sloping at 1:20 or greater, tapered washers must be used.</t>
+  </si>
+  <si>
+    <t>4.4 Materials Inspection</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings VR 631</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Galvanised coating - no loss of adhesion, damage, blisters, roughness, sharp points and flux residues.</t>
+  </si>
+  <si>
+    <t>4.5 Materials Inspection</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Paint or powder coating - uniform in appearance, colour &amp; texture with no loss of adhesion, damage, blisters, holidays, chalking or any other visible defects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1 Bearing / Mounting Surface Preparation </t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings Product TDS</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure the bearing surface clean and free from loose particles that will prevent solid seating of the parts</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each installation location</t>
+  </si>
+  <si>
+    <t>5.2 Structural Steel Handling</t>
+  </si>
+  <si>
+    <t>REFERENCE: 630.09, 631.14</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The method of handling and erection of the steelwork shall ensure that the members are not stressed or deformed beyond the design limit and that there is no damage to the protective coating during these operations.</t>
+  </si>
+  <si>
+    <t>5.3 Structural Steel Erection</t>
+  </si>
+  <si>
+    <t>REFERENCE: AS4100 Clause 15.2.3, AS5131 Clause 11.5.7, 630.12</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Place steel component into position, ensuring that it is plumb, level, square and within tolerances shown in 5.6.</t>
+  </si>
+  <si>
+    <t>○ Where mounting to supports or foundations, adjust RL accordingly using suitably sized shims, levelling or jacking nuts (where applicable).</t>
+  </si>
+  <si>
+    <t>○ Where a misalignment is found, only rheaming, milling, drilling or machine flame or plasma cut are allowed. Internal surface of the hole to remain smooth and free from burrs.</t>
+  </si>
+  <si>
+    <t>○ Holes shall not exceed the greater of: 1.25 x bolt dia. OR bolt dia. + 8mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Slots shall not exceed the greater of: 1.33 x (bolt dia. + 10mm) OR 2.5 x bolt dia </t>
+  </si>
+  <si>
+    <t>METHOD: Measure Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4 Fastener Tightening - Snug Tight Condition </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Place bolts, washers and nuts as detailed on the IFC Drawings.</t>
+  </si>
+  <si>
+    <t>For posts base plates, the arrangement is to be (from the base plate):</t>
+  </si>
+  <si>
+    <t>– Base Plate</t>
+  </si>
+  <si>
+    <t>– Washer as specified</t>
+  </si>
+  <si>
+    <t>– Lock Nut as specified</t>
+  </si>
+  <si>
+    <t>– Nut</t>
+  </si>
+  <si>
+    <t>– Bolt protrusion (1 clear tread)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each bolted connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5 Fastener Tightening - Snug Tight Condition </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Washers shall cover the hole or slotted hole completely by 0.5 x bolt diamter.</t>
+  </si>
+  <si>
+    <t>○ Tapered washers shall be positioned if specified.</t>
+  </si>
+  <si>
+    <t>○ Tighten from the stiffest section working towards the free edges with a few impacts of an impact wrench or the full effort of a person using a podger spanner.</t>
+  </si>
+  <si>
+    <t>○ Protrusion to be at least 1 clear thread shows beyond the nut but no greater than 12mm.</t>
+  </si>
+  <si>
+    <t>5.6 Survey Conformance</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings AS4100 Clause 15.3.1 - 7, AS5131 Appendix F, Table F3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Grouting of base plates and/or tensioning of bolts shall not commence until verification that the Works meet level and location requirements within the tolerances below:</t>
+  </si>
+  <si>
+    <t>Departure from plan position = ±6mm</t>
+  </si>
+  <si>
+    <t>Departure from alignment = ±6mm</t>
+  </si>
+  <si>
+    <t>Irregularities in alignment = 25mm in 30m</t>
+  </si>
+  <si>
+    <t>Departure from RL = ±10mm</t>
+  </si>
+  <si>
+    <t>Projection of bolt = +25mm, 5mm</t>
+  </si>
+  <si>
+    <t>Location of beam = ±3mm</t>
+  </si>
+  <si>
+    <t>Location of column = height/500, 10mm max.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each element</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: PE/Surveyor</t>
+  </si>
+  <si>
+    <t>5.7 Base Plate Formwork Construction &amp; Placement</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Dimensions as per drawings to achieve the profile.</t>
+  </si>
+  <si>
+    <t>○ Formwork rigid, sufficiently braced to support the pressure of the grout/mortar product and sealed to prevent leaks.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each post location</t>
+  </si>
+  <si>
+    <t>5.8 Pre-soaking Concrete Surface</t>
+  </si>
+  <si>
+    <t>REFERENCE: Product TDS</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Pre-soak the concrete surface with potable water for the recommended time frame indicated on the Product's TDS.</t>
+  </si>
+  <si>
+    <t>○ Prior to mixing the product, remove excess water that has not leaked out of the forms or been soaked into the substrate by appropriate means such as a leaf blower.</t>
+  </si>
+  <si>
+    <t>5.9 Weather Conditions</t>
+  </si>
+  <si>
+    <t>REFERENCE: 610.17 Table 610.171</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Do not commence grouting operations if inclement weather is forecast and the Works cannot be protected.</t>
+  </si>
+  <si>
+    <t>Record: Required information on the Grout Pour Record.</t>
+  </si>
+  <si>
+    <t>○ The temperature of the cementitious products, measured immediately prior to placing, shall not be less than 10°C or greater than 32°C.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>5.10 Mixing Product</t>
+  </si>
+  <si>
+    <t>REFERENCE: Product TDS 610.28</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Size of mixer should match the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter: Required information on the Grout Pour Record. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Only whole bags to be mixed with potable water. </t>
+  </si>
+  <si>
+    <t>○ Volume of water matches the required amount for flowable consistency and accurately measured.</t>
+  </si>
+  <si>
+    <t>○ Product poured into the mixer slowly.</t>
+  </si>
+  <si>
+    <t>○ Mixing time as per TDS so that a smooth, even consistency is obtained.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each batch</t>
+  </si>
+  <si>
+    <t>5.11 Product Testing - Compressive Strength Cubes</t>
+  </si>
+  <si>
+    <t>REFERENCE: 610.28, 610.33</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Cube moulds to be 75mm x 75mm maximum, made from rigid steel moulds and require lids due to the expansive nature of shrinkage compensating products.</t>
+  </si>
+  <si>
+    <t>○ First batch = 3 cubes (2 no. 7 day strength, 1 no. 28 day strength)</t>
+  </si>
+  <si>
+    <t>○ Every 100kg of product thereafter = 3 cubes (2 no. 7 day strength, 1 no. 28 day strength)</t>
+  </si>
+  <si>
+    <t>○ Testing is be in accordance with the following frequencies:</t>
+  </si>
+  <si>
+    <t>METHOD: Test</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Tester, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>5.12 Placement &amp; Compaction</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All batches are traceable.</t>
+  </si>
+  <si>
+    <t>Enter: Required information on the Grout Pour Record</t>
+  </si>
+  <si>
+    <t>○ Product poured from one side of the formwork to eliminate the entrapment of air or surplus pre-soaking water.</t>
+  </si>
+  <si>
+    <t>○ Product should flow to all areas and self consolidate.</t>
+  </si>
+  <si>
+    <t>○ Product that stiffens or is showing signs of stiffening shall not be used.</t>
+  </si>
+  <si>
+    <t>5.13 Surface Finishes &amp; Protection of Works</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 610.17</t>
+  </si>
+  <si>
+    <t>○ All freshly finished surfaces shall be protected where required from the sun, wind or rain, until curing is implemented.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each post location</t>
+  </si>
+  <si>
+    <t>5.14 Curing</t>
+  </si>
+  <si>
+    <t>REFERENCE: Curing Methodology 610.23 Table 610.231</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Curing to commence immediately after finishing operations and continue for the duration specified in table 610.231.</t>
+  </si>
+  <si>
+    <t>○ Curing methodology to be in accordance with the approved procedure and manufacturer's TDS.</t>
+  </si>
+  <si>
+    <t>5.15 Architectural Steel Erection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Place steel component into position, ensuring that it is plumb, level and square </t>
+  </si>
+  <si>
+    <t>○ Where steel to steel connections exist, holes shall be aligned so that a drift pin equal in diamter of the bolts can pass through freely</t>
+  </si>
+  <si>
+    <t>5.16 Architectural Steel Erection-Fasteners</t>
+  </si>
+  <si>
+    <t>For architectural/Security screens, the arrangement is to be (from themounting post):</t>
+  </si>
+  <si>
+    <t>– Post</t>
+  </si>
+  <si>
+    <t>– Washer (s) as specified</t>
+  </si>
+  <si>
+    <t>– Insulating washer</t>
+  </si>
+  <si>
+    <t>– insulating bush</t>
+  </si>
+  <si>
+    <t>– washer as specified</t>
+  </si>
+  <si>
+    <t>– Lock nut</t>
+  </si>
+  <si>
+    <t>5.17 Installation of Electrical Isolation Materials</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Installation of Electrical Isolation Material in locations specified on the IFC drawings.</t>
+  </si>
+  <si>
+    <t>6.1 Inspection of Coating</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: After installation Works are complete, inspect the steel element for damage to the coatings.</t>
+  </si>
+  <si>
+    <t>○ Where damage exists, it shall be repaired using an approved repair procedure.</t>
+  </si>
+  <si>
+    <t>6.2 Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings Product TDS 610.28, 610.33</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 7 day compressive strength (average of the 2 no. cubes) per sample for early indication that the strength is tracking correctly.</t>
+  </si>
+  <si>
+    <t>Attach: Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>○ 28 day compressive strength per sample comply with the design strength.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 As-built Survey </t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings AS5131 Appendix F, Table F3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Provide record of dimensional measurements to demonstrate that all Works meet level and location requirements within the tolerances below:</t>
+  </si>
+  <si>
+    <t>Attach: Survey As-builts / Survey Report</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: If shaping of the unformed surface is required, shape prior to the product fully hardening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of beam = ±3mm </t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Surveyor, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>6.4 Non-conformance Report (NCR) Closure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, prior to closure of this lot / element / Work area</t>
   </si>
 </sst>
 </file>
@@ -424,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +1118,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -793,7 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -817,6 +1309,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1174,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1718,9 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1728,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1252,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,8 +1833,8 @@
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1882,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,127 +1906,127 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
+      <c r="B33" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
+      <c r="B34" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>65</v>
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>40</v>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +2066,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,31 +2098,31 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
+      <c r="A50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>65</v>
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,23 +2130,23 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
+      <c r="B53" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,55 +2210,55 @@
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>45</v>
+      <c r="A64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>67</v>
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>39</v>
+      <c r="B67" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="B68" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,39 +2266,39 @@
         <v>11</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>41</v>
+      <c r="B71" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +2314,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +2330,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,31 +2346,31 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>68</v>
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>46</v>
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,31 +2378,31 @@
         <v>11</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>40</v>
+      <c r="A85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>9</v>
+      <c r="A86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1923,24 +2425,24 @@
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>42</v>
+      <c r="B89" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>9</v>
+      <c r="B90" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,31 +2474,31 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>70</v>
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>47</v>
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,40 +2521,40 @@
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>40</v>
+      <c r="B101" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>41</v>
+      <c r="A103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>9</v>
+      <c r="A104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>42</v>
+      <c r="A105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,55 +2570,55 @@
         <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>9</v>
+      <c r="B108" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>44</v>
+      <c r="B109" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>9</v>
+      <c r="B110" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>45</v>
+      <c r="B111" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>48</v>
+      <c r="A113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,15 +2634,15 @@
         <v>11</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>40</v>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,47 +2698,47 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>9</v>
+      <c r="A125" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>45</v>
+      <c r="A126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>10</v>
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>73</v>
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,23 +2746,23 @@
         <v>11</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>9</v>
+      <c r="B130" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>40</v>
+      <c r="B131" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2770,7 @@
         <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2794,7 @@
         <v>11</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,31 +2834,31 @@
         <v>11</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>10</v>
+      <c r="A142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>72</v>
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,23 +2866,23 @@
         <v>11</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>9</v>
+      <c r="B145" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>40</v>
+      <c r="B146" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2930,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,31 +2954,31 @@
         <v>11</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>10</v>
+      <c r="A157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>71</v>
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,15 +2986,15 @@
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>9</v>
+      <c r="B160" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,19 +3094,19 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>69</v>
+      <c r="A173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>49</v>
+      <c r="A174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,23 +3114,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>9</v>
+      <c r="B176" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>40</v>
+      <c r="B177" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +3146,7 @@
         <v>11</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +3162,7 @@
         <v>11</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,31 +3202,31 @@
         <v>11</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>10</v>
+      <c r="A188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>50</v>
+      <c r="A189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,23 +3234,23 @@
         <v>11</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>9</v>
+      <c r="B191" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>40</v>
+      <c r="B192" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +3258,7 @@
         <v>11</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,23 +3322,23 @@
         <v>11</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>10</v>
+      <c r="A203" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +3346,7 @@
         <v>23</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +3450,7 @@
         <v>11</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +3490,7 @@
         <v>11</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3594,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,39 +3610,39 @@
         <v>11</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>9</v>
+      <c r="B238" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>41</v>
+      <c r="B239" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>9</v>
+      <c r="B240" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>42</v>
+      <c r="B241" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,8 +3657,8 @@
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>43</v>
+      <c r="B243" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,23 +3690,23 @@
         <v>11</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>55</v>
+      <c r="A249" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,23 +3722,23 @@
         <v>11</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>9</v>
+      <c r="A253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,72 +3761,72 @@
       <c r="A256" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>42</v>
+      <c r="B256" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>9</v>
+      <c r="B257" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>43</v>
+      <c r="B258" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>9</v>
+      <c r="B259" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>44</v>
+      <c r="B260" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>9</v>
+      <c r="B261" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>45</v>
+      <c r="B262" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>56</v>
+      <c r="A264" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,15 +3842,15 @@
         <v>11</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>40</v>
+      <c r="B267" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3874,7 @@
         <v>11</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,23 +3890,23 @@
         <v>11</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>9</v>
+      <c r="A274" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3427,32 +3929,32 @@
       <c r="A277" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>45</v>
+      <c r="B277" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>57</v>
+      <c r="A279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>39</v>
+      <c r="B280" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,8 +3969,8 @@
       <c r="A282" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>40</v>
+      <c r="B282" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +4002,7 @@
         <v>11</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,55 +4034,55 @@
         <v>11</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>45</v>
+      <c r="A292" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>58</v>
+      <c r="A294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>39</v>
+      <c r="B295" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>9</v>
+      <c r="B296" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,47 +4090,47 @@
         <v>11</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>9</v>
+      <c r="B298" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>41</v>
+      <c r="B299" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>9</v>
+      <c r="B300" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>42</v>
+      <c r="B301" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>9</v>
+      <c r="B302" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +4138,7 @@
         <v>11</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,23 +4170,23 @@
         <v>11</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>59</v>
+      <c r="A309" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,24 +4209,24 @@
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>40</v>
+      <c r="B312" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>41</v>
+      <c r="A314" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,23 +4242,23 @@
         <v>11</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>9</v>
+      <c r="B317" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>43</v>
+      <c r="B318" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,23 +4290,23 @@
         <v>11</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>60</v>
+      <c r="A324" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,15 +4322,15 @@
         <v>11</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>40</v>
+      <c r="B327" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,23 +4338,23 @@
         <v>11</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>9</v>
+      <c r="A330" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,16 +4377,16 @@
       <c r="A333" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>43</v>
+      <c r="B333" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>9</v>
+      <c r="B334" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,23 +4410,23 @@
         <v>11</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>61</v>
+      <c r="A339" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +4434,7 @@
         <v>11</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3947,8 +4449,8 @@
       <c r="A342" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B342" s="6" t="s">
-        <v>40</v>
+      <c r="B342" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,23 +4466,23 @@
         <v>11</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>42</v>
+      <c r="A346" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,31 +4498,31 @@
         <v>11</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>9</v>
+      <c r="B349" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>44</v>
+      <c r="B350" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>9</v>
+      <c r="B351" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,23 +4530,23 @@
         <v>11</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>51</v>
+      <c r="A354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4067,8 +4569,8 @@
       <c r="A357" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>40</v>
+      <c r="B357" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4586,7 @@
         <v>11</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,23 +4602,23 @@
         <v>11</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>43</v>
+      <c r="A363" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4626,7 @@
         <v>11</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,63 +4634,63 @@
         <v>11</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>9</v>
+      <c r="B366" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>45</v>
+      <c r="B367" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>74</v>
+      <c r="A369" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>39</v>
+      <c r="B370" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>40</v>
+      <c r="B372" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4722,7 @@
         <v>11</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4730,7 @@
         <v>11</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,31 +4762,31 @@
         <v>11</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>10</v>
+      <c r="A383" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>75</v>
+      <c r="A384" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,15 +4794,15 @@
         <v>11</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>9</v>
+      <c r="B386" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,31 +4810,31 @@
         <v>11</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>9</v>
+      <c r="B388" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>41</v>
+      <c r="B389" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4882,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,23 +4890,23 @@
         <v>11</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>76</v>
+      <c r="A399" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,23 +4914,23 @@
         <v>11</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>40</v>
+      <c r="A402" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4938,7 @@
         <v>11</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,47 +4946,47 @@
         <v>11</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>9</v>
+      <c r="B405" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>42</v>
+      <c r="B406" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>9</v>
+      <c r="B407" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>43</v>
+      <c r="B408" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,23 +5010,23 @@
         <v>11</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>77</v>
+      <c r="A414" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +5034,7 @@
         <v>11</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -4547,8 +5049,8 @@
       <c r="A417" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B417" s="6" t="s">
-        <v>40</v>
+      <c r="B417" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,23 +5066,23 @@
         <v>11</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>42</v>
+      <c r="A421" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +5090,7 @@
         <v>11</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,23 +5098,23 @@
         <v>11</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>9</v>
+      <c r="B424" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>44</v>
+      <c r="B425" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,31 +5130,31 @@
         <v>11</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>78</v>
+      <c r="A429" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>62</v>
+      <c r="A430" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -4675,8 +5177,8 @@
       <c r="A433" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B433" s="6" t="s">
-        <v>40</v>
+      <c r="B433" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,23 +5194,23 @@
         <v>11</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>42</v>
+      <c r="A437" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +5218,7 @@
         <v>11</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,23 +5226,23 @@
         <v>11</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>9</v>
+      <c r="B440" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>44</v>
+      <c r="B441" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,23 +5258,23 @@
         <v>11</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B445" s="5" t="s">
-        <v>37</v>
+      <c r="A445" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +5282,7 @@
         <v>11</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,15 +5290,15 @@
         <v>11</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B448" s="6" t="s">
-        <v>40</v>
+      <c r="B448" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +5306,7 @@
         <v>11</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +5314,7 @@
         <v>11</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,23 +5322,23 @@
         <v>11</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>9</v>
+      <c r="A453" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4859,16 +5361,16 @@
       <c r="A456" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>44</v>
+      <c r="B456" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>9</v>
+      <c r="B457" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,23 +5378,23 @@
         <v>11</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B460" s="5" t="s">
-        <v>64</v>
+      <c r="A460" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4915,8 +5417,8 @@
       <c r="A463" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B463" s="6" t="s">
-        <v>40</v>
+      <c r="B463" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +5434,7 @@
         <v>11</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,23 +5450,23 @@
         <v>11</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>43</v>
+      <c r="A469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,55 +5482,55 @@
         <v>11</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>9</v>
+      <c r="B472" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>45</v>
+      <c r="B473" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B475" s="5" t="s">
-        <v>63</v>
+      <c r="A475" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>39</v>
+      <c r="B476" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>9</v>
+      <c r="B477" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,39 +5538,39 @@
         <v>11</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>9</v>
+      <c r="B479" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>41</v>
+      <c r="B480" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>9</v>
+      <c r="B481" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>42</v>
+      <c r="B482" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5586,7 @@
         <v>11</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5602,7 @@
         <v>11</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,67 +5618,795 @@
         <v>11</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="7" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B494" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B581" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B491" s="7" t="s">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B582" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="7" t="s">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B583" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="7" t="s">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B584" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="7" t="s">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B585" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="7" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B586" s="7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I495" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I586" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
